--- a/TestDataXls/tutor_add_coupon.xlsx
+++ b/TestDataXls/tutor_add_coupon.xlsx
@@ -3,19 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D2EF21-3173-4D08-B6BD-6C243D5AE12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69166AC1-B4B4-4114-8A1E-D814CD7EC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_coupon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>password</t>
   </si>
@@ -131,10 +140,16 @@
     <t>d</t>
   </si>
   <si>
-    <t>20/05/22</t>
-  </si>
-  <si>
-    <t>OFFER1</t>
+    <t>17/11/22</t>
+  </si>
+  <si>
+    <t>31/12/22</t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>JFYHRX45</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,10 +569,11 @@
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="12" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
     <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.44140625" customWidth="1"/>
@@ -790,25 +806,25 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>1</v>

--- a/TestDataXls/tutor_add_coupon.xlsx
+++ b/TestDataXls/tutor_add_coupon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69166AC1-B4B4-4114-8A1E-D814CD7EC3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275ACEB-A60D-4747-A73A-C5921E96B2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>password</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>JFYHRX45</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>22/11/22</t>
+  </si>
+  <si>
+    <t>JFYHRX13</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +575,7 @@
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
@@ -800,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -849,11 +861,54 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="V6" s="2"/>
       <c r="Z6" s="5"/>
@@ -1184,8 +1239,9 @@
     <hyperlink ref="E3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D5" r:id="rId7" xr:uid="{072D6AC9-7943-45C5-AAA1-7FE8C39CD053}"/>
     <hyperlink ref="E5" r:id="rId8" xr:uid="{878FC0CD-C0FE-4EEC-94FC-EFE55E2A6DE1}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{4B66E097-C200-43BA-8AC5-09D97EBAD6A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/TestDataXls/tutor_add_coupon.xlsx
+++ b/TestDataXls/tutor_add_coupon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4275ACEB-A60D-4747-A73A-C5921E96B2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583691B-6449-4995-B283-F2AB0823AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>17/11/22</t>
-  </si>
-  <si>
     <t>31/12/22</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>JFYHRX13</t>
+  </si>
+  <si>
+    <t>07/12/22</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -865,16 +865,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>1</v>

--- a/TestDataXls/tutor_add_coupon.xlsx
+++ b/TestDataXls/tutor_add_coupon.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583691B-6449-4995-B283-F2AB0823AD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C6B4F2-1CF6-4EBC-8218-8821FF680B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,28 +140,28 @@
     <t>d</t>
   </si>
   <si>
-    <t>31/12/22</t>
-  </si>
-  <si>
     <t>tutor54@nkt.com</t>
   </si>
   <si>
-    <t>JFYHRX45</t>
-  </si>
-  <si>
     <t>srinivasesaivanan6324@gmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>
   </si>
   <si>
-    <t>22/11/22</t>
-  </si>
-  <si>
-    <t>JFYHRX13</t>
-  </si>
-  <si>
-    <t>07/12/22</t>
+    <t>01/01/23</t>
+  </si>
+  <si>
+    <t>31/01/23</t>
+  </si>
+  <si>
+    <t>JFYHRX46</t>
+  </si>
+  <si>
+    <t>JFY4553DFF</t>
+  </si>
+  <si>
+    <t>10/01/23</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>19</v>
@@ -830,13 +830,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -865,16 +865,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -886,13 +886,13 @@
         <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>200</v>
@@ -901,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="N6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>2</v>
